--- a/src/main/resources/CompilerDictionary/LocatorDictionary/DownloadsGetStartedPageLocators.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/DownloadsGetStartedPageLocators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Automation/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6A3D9A-22BD-D242-9B5C-26BFF6A6F5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC7DA0F-58AA-A740-B5E6-8C044CBF3070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3E1C794B-3EEA-5D49-9035-87DD00BF1F04}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{3E1C794B-3EEA-5D49-9035-87DD00BF1F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sno</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>div.logo img[src *= 'couchbase']</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
@@ -422,19 +428,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257C6710-EC3F-FF4C-9523-D78D8F26A549}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +450,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -454,6 +463,9 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
